--- a/1_HW/1_ROBOT/1_DEPLACEMENT/2_CONTROLEUR_MOTEUR/SERVO57C.xlsx
+++ b/1_HW/1_ROBOT/1_DEPLACEMENT/2_CONTROLEUR_MOTEUR/SERVO57C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\GitHub\CDFDR-2023\1_HW\1_ROBOT\1_DEPLACEMENT\2_CONTROLEUR_MOTEUR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2863A196-12C7-4B88-9D55-5231D09B0962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13293149-6D31-4063-8234-13FB47B5B7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6786D095-F1AB-4379-9059-5859D567EE70}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{6786D095-F1AB-4379-9059-5859D567EE70}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="20">
   <si>
     <t>A+</t>
   </si>
@@ -114,17 +113,145 @@
     </r>
   </si>
   <si>
-    <t>NEMA17</t>
+    <t>NEMA23</t>
   </si>
   <si>
-    <t>NEMA23</t>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <r>
+      <t>Trun</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Left </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Good </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trun</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> right </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Good </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trun</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> right </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF5050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bab </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trun</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Left </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF5050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bab</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +298,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF5050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +317,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -209,12 +368,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -237,7 +422,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
@@ -572,23 +757,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D5F1BB-BAAE-4355-B372-BF734714D11E}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -622,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -639,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -656,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -673,7 +859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -690,7 +876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -707,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -724,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -741,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -758,7 +944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -775,7 +961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -792,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -809,7 +995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -826,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -843,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -860,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -877,7 +1063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -894,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -911,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,7 +1148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,7 +1165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1013,12 +1199,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1032,368 +1216,715 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="13"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="13"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="13"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="30"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="13"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="30"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="30"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
